--- a/数据整理/stocks/A股/上证主板/601158-重庆水务.xlsx
+++ b/数据整理/stocks/A股/上证主板/601158-重庆水务.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>63.93</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.32</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3780</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>5</v>
       </c>
     </row>
@@ -525,7 +545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,15 +566,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -566,26 +596,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001849</t>
+          <t>002561</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>前海开源强势共识100强等权重股票</t>
+          <t>东吴安鑫量化灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>93.24</t>
+          <t>4.03</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>2</v>
+          <t>30.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -594,26 +634,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>166107</t>
+          <t>004350</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>信达澳银量化多因子混合（LOF）A</t>
+          <t>汇丰晋信价值先锋股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.25</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -622,26 +672,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>166108</t>
+          <t>001849</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>信达澳银量化多因子混合（LOF）C</t>
+          <t>前海开源强势共识100强等权重股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.25</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -650,26 +710,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002561</t>
+          <t>166107</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>东吴安鑫量化灵活配置混合</t>
+          <t>信达澳银量化多因子混合（LOF）A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>30.36</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -678,26 +748,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004350</t>
+          <t>166108</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>汇丰晋信价值先锋股票</t>
+          <t>信达澳银量化多因子混合（LOF）C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>93.28</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/601158-重庆水务.xlsx
+++ b/数据整理/stocks/A股/上证主板/601158-重庆水务.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -783,4 +784,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004350</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇丰晋信价值先锋股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601158-重庆水务.xlsx
+++ b/数据整理/stocks/A股/上证主板/601158-重庆水务.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -878,4 +879,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004350</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇丰晋信价值先锋股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601158-重庆水务.xlsx
+++ b/数据整理/stocks/A股/上证主板/601158-重庆水务.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -973,4 +974,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601158-重庆水务.xlsx
+++ b/数据整理/stocks/A股/上证主板/601158-重庆水务.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -982,7 +983,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -993,17 +994,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1013,14 +1034,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.04</v>
+          <t>009263</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.46</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0560</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1029,7 +1072,97 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>010841</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -1045,14 +1178,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="5">
@@ -1061,13 +1194,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.38</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601158-重庆水务.xlsx
+++ b/数据整理/stocks/A股/上证主板/601158-重庆水务.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1115,7 +1116,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1126,17 +1127,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1146,14 +1167,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.06</v>
+          <t>501030</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证环境治理指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1401</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1162,14 +1205,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.04</v>
+          <t>501031</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中证环境治理指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1178,14 +1243,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.04</v>
+          <t>164908</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银施罗德中证环境治理指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1194,14 +1281,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.08</v>
+          <t>005632</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华量化先锋混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1210,13 +1319,281 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>501219</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏智胜先锋股票（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014198</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏智胜先锋股票（LOF）C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009263</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华宝红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.67</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010841</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华宝红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.67</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.38</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601158-重庆水务.xlsx
+++ b/数据整理/stocks/A股/上证主板/601158-重庆水务.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,91 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>260112</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>景顺长城能源基建混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>8.75</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>63.93</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.32</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.3780</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>5</v>
       </c>
+      <c r="D6" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.38</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -550,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -601,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002561</t>
+          <t>501030</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>东吴安鑫量化灵活配置混合</t>
+          <t>汇添富中证环境治理指数（LOF）A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.03</t>
+          <t>6.61</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>30.36</t>
+          <t>93.20</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0379</t>
+          <t>0.1401</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -639,36 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004350</t>
+          <t>501031</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇丰晋信价值先锋股票</t>
+          <t>汇添富中证环境治理指数（LOF）C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.28</t>
+          <t>93.20</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0351</t>
+          <t>0.0581</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -677,36 +715,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001849</t>
+          <t>164908</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>前海开源强势共识100强等权重股票</t>
+          <t>交银施罗德中证环境治理指数（LOF）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.24</t>
+          <t>93.72</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0061</t>
+          <t>0.0460</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -715,32 +753,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>166107</t>
+          <t>005632</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>信达澳银量化多因子混合（LOF）A</t>
+          <t>鹏华量化先锋混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.25</t>
+          <t>92.91</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0007</t>
+          <t>0.0431</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -753,35 +791,149 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>166108</t>
+          <t>501219</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>信达澳银量化多因子混合（LOF）C</t>
+          <t>华夏智胜先锋股票（LOF）A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>3.61</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.25</t>
+          <t>94.50</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0001</t>
+          <t>0.0343</t>
         </is>
       </c>
       <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014198</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏智胜先锋股票（LOF）C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009263</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华宝红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.67</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010841</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华宝红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.67</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>9</v>
       </c>
     </row>
@@ -796,7 +948,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -817,7 +969,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -847,36 +999,74 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004350</t>
+          <t>009263</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇丰晋信价值先锋股票</t>
+          <t>华宝红利精选混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>4.59</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.24</t>
+          <t>83.46</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.84</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0358</t>
+          <t>0.0560</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010841</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -984,7 +1174,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1005,7 +1195,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1035,74 +1225,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009263</t>
+          <t>004350</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华宝红利精选混合A</t>
+          <t>汇丰晋信价值先锋股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.59</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>83.46</t>
+          <t>94.24</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0560</t>
+          <t>0.0358</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>010841</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华宝红利精选混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>83.46</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0018</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1116,7 +1268,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1137,7 +1289,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1167,36 +1319,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>501030</t>
+          <t>002561</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇添富中证环境治理指数（LOF）A</t>
+          <t>东吴安鑫量化灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.61</t>
+          <t>4.03</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.20</t>
+          <t>30.36</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1401</t>
+          <t>0.0379</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1205,36 +1357,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>501031</t>
+          <t>004350</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇添富中证环境治理指数（LOF）C</t>
+          <t>汇丰晋信价值先锋股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.20</t>
+          <t>93.28</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>4.44</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0581</t>
+          <t>0.0351</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1243,36 +1395,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>164908</t>
+          <t>001849</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>交银施罗德中证环境治理指数（LOF）</t>
+          <t>前海开源强势共识100强等权重股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.72</t>
+          <t>93.24</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.17</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0460</t>
+          <t>0.0061</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1281,32 +1433,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005632</t>
+          <t>166107</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>鹏华量化先锋混合</t>
+          <t>信达澳银量化多因子混合（LOF）A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.91</t>
+          <t>94.25</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0431</t>
+          <t>0.0007</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1319,149 +1471,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>501219</t>
+          <t>166108</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华夏智胜先锋股票（LOF）A</t>
+          <t>信达澳银量化多因子混合（LOF）C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.61</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.50</t>
+          <t>94.25</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0343</t>
+          <t>0.0001</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>014198</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华夏智胜先锋股票（LOF）C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.50</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0124</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>009263</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华宝红利精选混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>83.67</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0045</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>010841</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>华宝红利精选混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>83.67</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0016</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1476,128 +1514,90 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+          <t>260112</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城能源基建混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>63.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3780</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>5</v>
       </c>
-      <c r="D6" t="n">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.38</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>